--- a/accoj/download/添加班级格式.xlsx
+++ b/accoj/download/添加班级格式.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\17020\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C65C5813-FE61-4338-BA9D-8D3F267900D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81C93CCE-5D6C-4D78-97B8-AB0605AD7190}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2475" yWindow="1980" windowWidth="24615" windowHeight="13305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>学号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -65,7 +65,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>钱书文</t>
+    <t>手机号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郭雄</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -398,10 +402,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -411,9 +415,10 @@
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -429,13 +434,16 @@
       <c r="E1" t="s">
         <v>3</v>
       </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>17020340101</v>
+        <v>17020340111</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -445,6 +453,9 @@
       </c>
       <c r="E2" t="s">
         <v>7</v>
+      </c>
+      <c r="F2">
+        <v>17674549805</v>
       </c>
     </row>
   </sheetData>
